--- a/output/0/tRNA-Phe-GAA-1-2.xlsx
+++ b/output/0/tRNA-Phe-GAA-1-2.xlsx
@@ -12,213 +12,339 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="112">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>28949456</t>
-  </si>
-  <si>
-    <t>28949479</t>
+    <t>28949970</t>
+  </si>
+  <si>
+    <t>28949993</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>28949990</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>CAGCTTCCCTGGTGGTCTAG</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>53% (51)</t>
+  </si>
+  <si>
+    <t>72% (56)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>28949975</t>
+  </si>
+  <si>
+    <t>28949998</t>
+  </si>
+  <si>
+    <t>28949995</t>
+  </si>
+  <si>
+    <t>TCCCTGGTGGTCTAGTGGTT</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>32% (44)</t>
+  </si>
+  <si>
+    <t>76% (58)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>28949976</t>
+  </si>
+  <si>
+    <t>28949999</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>28949459</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>AAGGTCCCTGGTTCGATCCC</t>
+    <t>28949979</t>
+  </si>
+  <si>
+    <t>TCCTAACCACTAGACCACCA</t>
   </si>
   <si>
     <t>GGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+    <t>100% (75)</t>
+  </si>
+  <si>
+    <t>48% (44)</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>28949977</t>
+  </si>
+  <si>
+    <t>28950000</t>
+  </si>
+  <si>
+    <t>28949980</t>
+  </si>
+  <si>
+    <t>ATCCTAACCACTAGACCACC</t>
+  </si>
+  <si>
+    <t>69% (56)</t>
+  </si>
+  <si>
+    <t>16% (27)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>28949981</t>
+  </si>
+  <si>
+    <t>28950004</t>
+  </si>
+  <si>
+    <t>28950001</t>
+  </si>
+  <si>
+    <t>GTGGTCTAGTGGTTAGGATT</t>
+  </si>
+  <si>
+    <t>CGG</t>
   </si>
   <si>
     <t>38% (46)</t>
   </si>
   <si>
+    <t>88% (67)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>28950021</t>
+  </si>
+  <si>
+    <t>28950018</t>
+  </si>
+  <si>
+    <t>ATTCGGCGCTCTCACCGCCG</t>
+  </si>
+  <si>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>59% (49)</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>28950003</t>
+  </si>
+  <si>
+    <t>28950026</t>
+  </si>
+  <si>
+    <t>28950023</t>
+  </si>
+  <si>
+    <t>GCGCTCTCACCGCCGCGGCC</t>
+  </si>
+  <si>
+    <t>7% (28)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>28950027</t>
+  </si>
+  <si>
+    <t>28950024</t>
+  </si>
+  <si>
+    <t>CGCTCTCACCGCCGCGGCCC</t>
+  </si>
+  <si>
+    <t>8% (30)</t>
+  </si>
+  <si>
+    <t>65% (52)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>28950012</t>
+  </si>
+  <si>
+    <t>28950035</t>
+  </si>
+  <si>
+    <t>28950015</t>
+  </si>
+  <si>
+    <t>GAATCGAACCCGGGCCGCGG</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>84% (64)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>28950038</t>
+  </si>
+  <si>
+    <t>CGGGAATCGAACCCGGGCCG</t>
+  </si>
+  <si>
+    <t>35% (45)</t>
+  </si>
+  <si>
+    <t>92% (72)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>28950016</t>
+  </si>
+  <si>
+    <t>28950039</t>
+  </si>
+  <si>
+    <t>28950036</t>
+  </si>
+  <si>
+    <t>CGCGGCCCGGGTTCGATTCC</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>28950044</t>
+  </si>
+  <si>
+    <t>28950041</t>
+  </si>
+  <si>
+    <t>CCCGGGTTCGATTCCCGGTC</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
     <t>74% (57)</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>28949457</t>
-  </si>
-  <si>
-    <t>28949480</t>
-  </si>
-  <si>
-    <t>28949460</t>
-  </si>
-  <si>
-    <t>AAAGGTCCCTGGTTCGATCC</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>40% (47)</t>
-  </si>
-  <si>
-    <t>76% (58)</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>28949468</t>
-  </si>
-  <si>
-    <t>28949491</t>
-  </si>
-  <si>
-    <t>28949471</t>
-  </si>
-  <si>
-    <t>ACTGAAGATCTAAAGGTCCC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>69% (56)</t>
-  </si>
-  <si>
-    <t>5% (17)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>28949475</t>
-  </si>
-  <si>
-    <t>28949498</t>
-  </si>
-  <si>
-    <t>28949478</t>
-  </si>
-  <si>
-    <t>GCGTTAGACTGAAGATCTAA</t>
-  </si>
-  <si>
-    <t>AGG</t>
+    <t>65</t>
+  </si>
+  <si>
+    <t>CCTGACCGGGAATCGAACCC</t>
+  </si>
+  <si>
+    <t>56% (52)</t>
+  </si>
+  <si>
+    <t>61% (50)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>28950022</t>
+  </si>
+  <si>
+    <t>28950045</t>
+  </si>
+  <si>
+    <t>28950042</t>
+  </si>
+  <si>
+    <t>CCGGGTTCGATTCCCGGTCA</t>
   </si>
   <si>
     <t>63% (54)</t>
   </si>
   <si>
-    <t>7% (19)</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>28949497</t>
-  </si>
-  <si>
-    <t>28949520</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>28949517</t>
-  </si>
-  <si>
-    <t>CTCTCCCAACTGAGCTATTT</t>
-  </si>
-  <si>
-    <t>7% (28)</t>
-  </si>
-  <si>
-    <t>17% (28)</t>
+    <t>98% (84)</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>28949450</t>
-  </si>
-  <si>
-    <t>28949473</t>
-  </si>
-  <si>
-    <t>28949470</t>
-  </si>
-  <si>
-    <t>CCGAAACCCGGGATCGAACC</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>28949453</t>
-  </si>
-  <si>
-    <t>CCTGGTTCGATCCCGGGTTT</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>92% (72)</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>28949451</t>
-  </si>
-  <si>
-    <t>28949474</t>
-  </si>
-  <si>
-    <t>CGAAACCCGGGATCGAACCA</t>
-  </si>
-  <si>
-    <t>92% (65)</t>
-  </si>
-  <si>
-    <t>37% (39)</t>
+    <t>28950025</t>
+  </si>
+  <si>
+    <t>CCCTGACCGGGAATCGAACC</t>
+  </si>
+  <si>
+    <t>27% (34)</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>66</t>
@@ -266,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -289,10 +415,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -348,10 +474,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -404,10 +530,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -422,25 +548,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -454,23 +580,23 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
@@ -481,10 +607,10 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -522,28 +648,28 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
@@ -572,43 +698,43 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
         <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
       </c>
       <c r="O6" t="s">
         <v>56</v>
@@ -617,7 +743,7 @@
         <v>57</v>
       </c>
       <c r="Q6" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -631,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -643,10 +769,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -658,25 +784,25 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -690,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -699,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -717,25 +843,25 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
@@ -749,22 +875,22 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -776,25 +902,25 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="R9" t="s">
         <v>15</v>
@@ -808,22 +934,22 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -835,25 +961,25 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R10" t="s">
         <v>15</v>
@@ -867,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -879,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -894,25 +1020,25 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
         <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
         <v>15</v>
@@ -926,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -938,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -953,25 +1079,25 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="R12" t="s">
         <v>15</v>
@@ -985,22 +1111,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -1012,30 +1138,148 @@
         <v>7</v>
       </c>
       <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s">
         <v>47</v>
       </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
         <v>48</v>
       </c>
-      <c r="O13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
         <v>3</v>
       </c>
     </row>
